--- a/hoy/fallos/failed-JAMU.xlsx
+++ b/hoy/fallos/failed-JAMU.xlsx
@@ -15,17 +15,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+  <si>
+    <t>CAY_EMA</t>
+  </si>
+  <si>
+    <t>JAM_EMA</t>
+  </si>
+  <si>
+    <t>BAR_COMG</t>
+  </si>
+  <si>
+    <t>JAM_LDAP</t>
+  </si>
+  <si>
+    <t>JAM_HUA2</t>
+  </si>
   <si>
     <t>JAM_MSAN</t>
   </si>
   <si>
-    <t>JAM_HUA2</t>
-  </si>
-  <si>
-    <t>JAM_LDAP</t>
-  </si>
-  <si>
     <t>JAM_MDVL</t>
   </si>
   <si>
@@ -38,67 +47,49 @@
     <t>JM-PBK-TX-</t>
   </si>
   <si>
+    <t>JAM_CARL</t>
+  </si>
+  <si>
+    <t>BVI_MSAN</t>
+  </si>
+  <si>
     <t>TKI_HUAW</t>
   </si>
   <si>
-    <t>BAR_COMG</t>
-  </si>
-  <si>
-    <t>JAM_CARL</t>
-  </si>
-  <si>
-    <t>BVI_MSAN</t>
+    <t>BAR_SC14B</t>
+  </si>
+  <si>
+    <t>JAM_CVVM</t>
   </si>
   <si>
     <t>JAM_DSLAM</t>
   </si>
   <si>
-    <t>BAR_SC14B</t>
-  </si>
-  <si>
-    <t>JAM_EMA</t>
-  </si>
-  <si>
-    <t>CAY_EMA</t>
-  </si>
-  <si>
-    <t>JAM_CVVM</t>
+    <t>JAM_SC14B</t>
   </si>
   <si>
     <t>BAR_EMA</t>
   </si>
   <si>
+    <t>JAM_MOBY</t>
+  </si>
+  <si>
+    <t>CAY_CVVM</t>
+  </si>
+  <si>
+    <t>CAY_VOX</t>
+  </si>
+  <si>
+    <t>JAM_EAST</t>
+  </si>
+  <si>
     <t>JAM_SABY</t>
   </si>
   <si>
-    <t>JAM_MOBY</t>
-  </si>
-  <si>
-    <t>CAY_CVVM</t>
-  </si>
-  <si>
-    <t>JAM_SC14B</t>
-  </si>
-  <si>
-    <t>CAY_VOX</t>
-  </si>
-  <si>
-    <t>NOR_CVVM</t>
+    <t>JAM_WST2</t>
   </si>
   <si>
     <t>SOU_CVVM</t>
-  </si>
-  <si>
-    <t>BAR_BBRY</t>
-  </si>
-  <si>
-    <t>JAM_DGPT</t>
-  </si>
-  <si>
-    <t>JAM_EAST</t>
-  </si>
-  <si>
-    <t>JAM_WST2</t>
   </si>
 </sst>
 </file>
@@ -447,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>588</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -482,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>478</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -493,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>435</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -504,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>409</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -515,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>128</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -526,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>114</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -537,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>95</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -548,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -559,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -570,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -581,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -592,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -603,7 +594,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -614,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -625,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -636,7 +627,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -647,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -658,7 +649,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -669,7 +660,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -680,7 +671,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -691,7 +682,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -702,7 +693,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -713,7 +704,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -724,7 +715,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -735,39 +726,6 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
         <v>1</v>
       </c>
     </row>
